--- a/data/lönegap_kön.xlsx
+++ b/data/lönegap_kön.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svenskidrott-my.sharepoint.com/personal/william_lind_rfsisu_se/Documents/Dokument/GitHub/Hemsideprojekt/Hemsideprojekt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC1048F9A9DA43CE5ADE58FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C04F25-C323-46E1-98EC-E8C07591E65B}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABDACC1048F9A9DA43CE5ADE58FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DC7923F-87E3-494C-A5D2-3E3A2B01454D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Land</t>
   </si>
@@ -43,6 +43,33 @@
   </si>
   <si>
     <t>SWE</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>7.0</t>
   </si>
 </sst>
 </file>
@@ -78,13 +105,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -95,6 +127,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AC87FE9-4383-4503-A34C-AC04D58489E9}" name="Tabell1" displayName="Tabell1" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11" xr:uid="{3AC87FE9-4383-4503-A34C-AC04D58489E9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EDE7E4B8-D2DF-4FCF-9D8B-0BAE13EFA48E}" name="Land"/>
+    <tableColumn id="2" xr3:uid="{AB65221E-C6C1-4DB4-80A5-3324D991AD7A}" name="Kod"/>
+    <tableColumn id="3" xr3:uid="{ABF8CF4C-D9A4-4A99-9006-EB257FE3D26F}" name="År"/>
+    <tableColumn id="4" xr3:uid="{086BEC26-438D-4C08-B7F1-877F75B1ADC1}" name="Andel" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,13 +405,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -378,7 +426,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -392,7 +440,7 @@
       <c r="C2">
         <v>2014</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -406,8 +454,8 @@
       <c r="C3">
         <v>2015</v>
       </c>
-      <c r="D3">
-        <v>13</v>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -420,8 +468,8 @@
       <c r="C4">
         <v>2016</v>
       </c>
-      <c r="D4">
-        <v>12</v>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -434,8 +482,8 @@
       <c r="C5">
         <v>2017</v>
       </c>
-      <c r="D5">
-        <v>11</v>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -448,8 +496,8 @@
       <c r="C6">
         <v>2018</v>
       </c>
-      <c r="D6">
-        <v>11</v>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -462,8 +510,8 @@
       <c r="C7">
         <v>2019</v>
       </c>
-      <c r="D7">
-        <v>10</v>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -476,8 +524,8 @@
       <c r="C8">
         <v>2020</v>
       </c>
-      <c r="D8">
-        <v>10</v>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -490,8 +538,8 @@
       <c r="C9">
         <v>2021</v>
       </c>
-      <c r="D9">
-        <v>10</v>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -504,8 +552,8 @@
       <c r="C10">
         <v>2022</v>
       </c>
-      <c r="D10">
-        <v>10</v>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -518,26 +566,15 @@
       <c r="C11">
         <v>2023</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>2024</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
